--- a/resources/Green Line.xlsx
+++ b/resources/Green Line.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan\Box Sync\Semester 6\ECE 1140\Track Layouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07de44e608f1ac43/Documents/GitHub/ECE1140-Project/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C3C357-EEA5-47BF-9978-17BF8C658C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD6C953-5996-4D2F-928F-AECA6D17DC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28125" yWindow="270" windowWidth="19200" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="90">
   <si>
     <t>Block Number</t>
   </si>
@@ -249,6 +249,57 @@
   </si>
   <si>
     <t>-1,61</t>
+  </si>
+  <si>
+    <t>Beacon</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>JERRY,TRUE,BOTH</t>
+  </si>
+  <si>
+    <t>EDGEBROOK,TRUE,LEFT</t>
+  </si>
+  <si>
+    <t>PIONEER,TRUE,LEFT</t>
+  </si>
+  <si>
+    <t>WHITED,TRUE,BOTH</t>
+  </si>
+  <si>
+    <t>SOUTH BANK,TRUE,LEFT</t>
+  </si>
+  <si>
+    <t>CENTRAL,TRUE,RIGHT</t>
+  </si>
+  <si>
+    <t>INGLEWOOD,TRUE,RIGHT</t>
+  </si>
+  <si>
+    <t>OVERBROOK,TRUE,RIGHT</t>
+  </si>
+  <si>
+    <t>GLENBURY,TRUE,RIGHT</t>
+  </si>
+  <si>
+    <t>DORMONT,TRUE,RIGHT</t>
+  </si>
+  <si>
+    <t>MT LEBANON,TRUE,BOTH</t>
+  </si>
+  <si>
+    <t>POPLAR,TRUE,LEFT</t>
+  </si>
+  <si>
+    <t>CASTLE SHANNON,TRUE,LEFT</t>
+  </si>
+  <si>
+    <t>INGLEWOOD,TRUE,LEFT</t>
   </si>
 </sst>
 </file>
@@ -685,11 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -697,20 +748,23 @@
     <col min="1" max="1" width="8.81640625" style="3"/>
     <col min="2" max="2" width="12.81640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="13.26953125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="17.453125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" style="3"/>
-    <col min="15" max="18" width="8.81640625" style="1"/>
-    <col min="19" max="19" width="11.453125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.81640625" style="1"/>
+    <col min="4" max="4" width="17.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="13.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" style="3"/>
+    <col min="13" max="15" width="17.453125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31" style="3" customWidth="1"/>
+    <col min="18" max="21" width="8.81640625" style="1"/>
+    <col min="22" max="22" width="11.453125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="37.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -721,49 +775,58 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -773,32 +836,38 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="3">
         <v>100</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="I2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="3">
         <v>45</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="3">
-        <f>E2*D2/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="P2" s="3">
-        <f>O2</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q2" s="10">
-        <f t="shared" ref="Q2:Q65" si="0">D2*(1/(F2*1000/(60*60)))</f>
+      <c r="K2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="3">
+        <f t="shared" ref="R2:R33" si="0">I2*H2/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="S2" s="3">
+        <f>R2</f>
+        <v>0.5</v>
+      </c>
+      <c r="T2" s="10">
+        <f t="shared" ref="T2:T33" si="1">H2*(1/(J2*1000/(60*60)))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -809,39 +878,39 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="3">
         <v>100</v>
       </c>
-      <c r="E3" s="3">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="J3" s="3">
         <v>45</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="3">
-        <f t="shared" ref="O3:O66" si="1">E3*D3/100</f>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P3" s="3">
-        <f>O3+P2</f>
+      <c r="S3" s="3">
+        <f>R3+S2</f>
         <v>1.5</v>
       </c>
-      <c r="Q3" s="10">
-        <f t="shared" si="0"/>
+      <c r="T3" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="2">A3</f>
         <v>Green</v>
@@ -852,33 +921,39 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="E4" s="3">
+      <c r="I4" s="3">
         <v>1.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="J4" s="3">
         <v>45</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="K4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" ref="S4:S67" si="3">R4+S3</f>
+        <v>3</v>
+      </c>
+      <c r="T4" s="10">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" ref="P4:P67" si="3">O4+P3</f>
-        <v>3</v>
-      </c>
-      <c r="Q4" s="10">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -889,32 +964,32 @@
       <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="H5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="3">
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="J5" s="3">
         <v>45</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" si="1"/>
+      <c r="K5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P5" s="3">
+      <c r="S5" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="0"/>
+      <c r="T5" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -925,32 +1000,32 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="H6" s="3">
         <v>100</v>
       </c>
-      <c r="E6" s="3">
+      <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="J6" s="3">
         <v>45</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" si="1"/>
+      <c r="K6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P6" s="3">
+      <c r="S6" s="3">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="0"/>
+      <c r="T6" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -961,32 +1036,32 @@
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="3">
+      <c r="I7" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="3">
+      <c r="J7" s="3">
         <v>45</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="1"/>
+      <c r="K7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="P7" s="3">
+      <c r="S7" s="3">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="0"/>
+      <c r="T7" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -997,33 +1072,33 @@
       <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>45</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="O8" s="3">
-        <f t="shared" si="1"/>
+      <c r="K8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="0"/>
+      <c r="T8" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1034,32 +1109,38 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>45</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="0"/>
+      <c r="T9" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1070,39 +1151,39 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="I10" s="3">
         <v>-5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="J10" s="3">
         <v>45</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="3" t="s">
+      <c r="K10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="3">
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="0"/>
+      <c r="T10" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1113,32 +1194,38 @@
       <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="3">
         <v>100</v>
       </c>
-      <c r="E11" s="9">
+      <c r="I11" s="9">
         <v>-4.5</v>
       </c>
-      <c r="F11" s="3">
+      <c r="J11" s="3">
         <v>45</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="3">
-        <f t="shared" si="1"/>
+      <c r="K11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="0"/>
         <v>-4.5</v>
       </c>
-      <c r="P11" s="3">
+      <c r="S11" s="3">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="0"/>
+      <c r="T11" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1149,32 +1236,32 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="I12" s="3">
         <v>-4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="J12" s="3">
         <v>45</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" si="1"/>
+      <c r="K12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="P12" s="3">
+      <c r="S12" s="3">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="0"/>
+      <c r="T12" s="10">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1185,32 +1272,32 @@
       <c r="C13" s="5">
         <v>12</v>
       </c>
-      <c r="D13" s="3">
+      <c r="H13" s="3">
         <v>100</v>
       </c>
-      <c r="E13" s="3">
+      <c r="I13" s="3">
         <v>-3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="J13" s="3">
         <v>45</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="K13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="10">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1221,38 +1308,38 @@
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="3">
+      <c r="H14" s="3">
         <v>150</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>70</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <v>1</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T14" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q14" s="10">
-        <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1263,32 +1350,32 @@
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="3">
+      <c r="H15" s="3">
         <v>150</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>70</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="3">
+      <c r="R15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1299,32 +1386,38 @@
       <c r="C16" s="5">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="3">
         <v>150</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <v>70</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="3">
+      <c r="R16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T16" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="10">
-        <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1335,39 +1428,39 @@
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="3">
         <v>150</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>70</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="8"/>
+      <c r="R17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T17" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q17" s="10">
-        <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1378,32 +1471,38 @@
       <c r="C18" s="5">
         <v>17</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="3">
         <v>150</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>60</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="3">
-        <f>E18*D18/100</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="0"/>
+      <c r="T18" s="10">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1414,32 +1513,32 @@
       <c r="C19" s="3">
         <v>18</v>
       </c>
-      <c r="D19" s="3">
+      <c r="H19" s="3">
         <v>150</v>
       </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
         <v>60</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="3">
+      <c r="R19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T19" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q19" s="10">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1450,35 +1549,35 @@
       <c r="C20" s="3">
         <v>19</v>
       </c>
-      <c r="D20" s="3">
+      <c r="H20" s="3">
         <v>150</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>60</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="P20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T20" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q20" s="10">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1489,32 +1588,32 @@
       <c r="C21" s="5">
         <v>20</v>
       </c>
-      <c r="D21" s="3">
+      <c r="H21" s="3">
         <v>150</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>60</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T21" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q21" s="10">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1525,32 +1624,38 @@
       <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>70</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T22" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q22" s="10">
-        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1561,39 +1666,39 @@
       <c r="C23" s="5">
         <v>22</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>70</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="8"/>
+      <c r="R23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q23" s="10">
-        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1604,32 +1709,38 @@
       <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>70</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q24" s="10">
-        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1640,32 +1751,32 @@
       <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="3">
+      <c r="H25" s="3">
         <v>300</v>
       </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
         <v>70</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O25" s="3">
+      <c r="R25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T25" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q25" s="10">
-        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1676,32 +1787,32 @@
       <c r="C26" s="5">
         <v>25</v>
       </c>
-      <c r="D26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>70</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q26" s="10">
-        <f t="shared" si="0"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1712,32 +1823,32 @@
       <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>70</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q27" s="10">
-        <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1748,32 +1859,32 @@
       <c r="C28" s="5">
         <v>27</v>
       </c>
-      <c r="D28" s="3">
-        <v>50</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="H28" s="3">
+        <v>50</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
         <v>30</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O28" s="3">
+      <c r="R28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T28" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q28" s="10">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1784,32 +1895,32 @@
       <c r="C29" s="3">
         <v>28</v>
       </c>
-      <c r="D29" s="3">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
+        <v>50</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>30</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O29" s="3">
+      <c r="R29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T29" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q29" s="10">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1820,40 +1931,43 @@
       <c r="C30" s="3">
         <v>29</v>
       </c>
-      <c r="D30" s="3">
-        <v>50</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="3">
+        <v>50</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
         <v>30</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="12" t="s">
+      <c r="K30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="12">
+      <c r="N30" s="12">
         <v>2</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="O30" s="3">
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="R30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T30" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q30" s="10">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1864,32 +1978,38 @@
       <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="D31" s="3">
-        <v>50</v>
-      </c>
       <c r="E31" s="3">
         <v>0</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="3">
+        <v>50</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
         <v>30</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O31" s="3">
+      <c r="K31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T31" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q31" s="10">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1900,39 +2020,39 @@
       <c r="C32" s="3">
         <v>31</v>
       </c>
-      <c r="D32" s="3">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="3">
+        <v>50</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>30</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="3" t="s">
+      <c r="K32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="8"/>
+      <c r="R32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T32" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q32" s="10">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1943,32 +2063,32 @@
       <c r="C33" s="5">
         <v>32</v>
       </c>
-      <c r="D33" s="3">
-        <v>50</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>50</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>30</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T33" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q33" s="10">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -1979,32 +2099,32 @@
       <c r="C34" s="3">
         <v>33</v>
       </c>
-      <c r="D34" s="3">
-        <v>50</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="H34" s="3">
+        <v>50</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
         <v>30</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O34" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="3">
+      <c r="K34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" ref="R34:R65" si="4">I34*H34/100</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q34" s="10">
-        <f t="shared" si="0"/>
+      <c r="T34" s="10">
+        <f t="shared" ref="T34:T65" si="5">H34*(1/(J34*1000/(60*60)))</f>
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2015,32 +2135,32 @@
       <c r="C35" s="3">
         <v>34</v>
       </c>
-      <c r="D35" s="3">
-        <v>50</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>50</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>30</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O35" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q35" s="10">
-        <f t="shared" si="0"/>
+      <c r="T35" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2051,32 +2171,32 @@
       <c r="C36" s="5">
         <v>35</v>
       </c>
-      <c r="D36" s="3">
-        <v>50</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="H36" s="3">
+        <v>50</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
         <v>30</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O36" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
+      <c r="K36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q36" s="10">
-        <f t="shared" si="0"/>
+      <c r="T36" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2087,35 +2207,35 @@
       <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="3">
-        <v>50</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="H37" s="3">
+        <v>50</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
         <v>30</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O37" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
+      <c r="R37" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q37" s="10">
-        <f t="shared" si="0"/>
+      <c r="T37" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -2126,35 +2246,35 @@
       <c r="C38" s="3">
         <v>37</v>
       </c>
-      <c r="D38" s="3">
-        <v>50</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="H38" s="3">
+        <v>50</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
         <v>30</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O38" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
+      <c r="R38" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q38" s="10">
-        <f t="shared" si="0"/>
+      <c r="T38" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2165,35 +2285,41 @@
       <c r="C39" s="5">
         <v>38</v>
       </c>
-      <c r="D39" s="3">
-        <v>50</v>
-      </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="3">
+        <v>50</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
         <v>30</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O39" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
+      <c r="R39" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q39" s="10">
-        <f t="shared" si="0"/>
+      <c r="T39" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2204,43 +2330,46 @@
       <c r="C40" s="3">
         <v>39</v>
       </c>
-      <c r="D40" s="3">
-        <v>50</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="3">
+        <v>50</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
         <v>30</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O40" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q40" s="10">
-        <f t="shared" si="0"/>
+      <c r="T40" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2251,35 +2380,35 @@
       <c r="C41" s="3">
         <v>40</v>
       </c>
-      <c r="D41" s="3">
-        <v>50</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
+        <v>50</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>30</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O41" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q41" s="10">
-        <f t="shared" si="0"/>
+      <c r="T41" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2290,35 +2419,35 @@
       <c r="C42" s="5">
         <v>41</v>
       </c>
-      <c r="D42" s="3">
-        <v>50</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
+        <v>50</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>30</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q42" s="10">
-        <f t="shared" si="0"/>
+      <c r="T42" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2329,35 +2458,35 @@
       <c r="C43" s="3">
         <v>42</v>
       </c>
-      <c r="D43" s="3">
-        <v>50</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
+        <v>50</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>30</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O43" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q43" s="10">
-        <f t="shared" si="0"/>
+      <c r="T43" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2368,35 +2497,35 @@
       <c r="C44" s="3">
         <v>43</v>
       </c>
-      <c r="D44" s="3">
-        <v>50</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
+        <v>50</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>30</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q44" s="10">
-        <f t="shared" si="0"/>
+      <c r="T44" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2407,35 +2536,35 @@
       <c r="C45" s="5">
         <v>44</v>
       </c>
-      <c r="D45" s="3">
-        <v>50</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
+        <v>50</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>30</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O45" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q45" s="10">
-        <f t="shared" si="0"/>
+      <c r="T45" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2446,35 +2575,35 @@
       <c r="C46" s="3">
         <v>45</v>
       </c>
-      <c r="D46" s="3">
-        <v>50</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
+        <v>50</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>30</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O46" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q46" s="10">
-        <f t="shared" si="0"/>
+      <c r="T46" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2485,35 +2614,35 @@
       <c r="C47" s="3">
         <v>46</v>
       </c>
-      <c r="D47" s="3">
-        <v>50</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
+        <v>50</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>30</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O47" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q47" s="10">
-        <f t="shared" si="0"/>
+      <c r="T47" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2524,35 +2653,41 @@
       <c r="C48" s="5">
         <v>47</v>
       </c>
-      <c r="D48" s="3">
-        <v>50</v>
-      </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="3">
+        <v>50</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>30</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O48" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q48" s="10">
-        <f t="shared" si="0"/>
+      <c r="T48" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2563,43 +2698,46 @@
       <c r="C49" s="3">
         <v>48</v>
       </c>
-      <c r="D49" s="3">
-        <v>50</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="3">
+        <v>50</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>30</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K49" s="8" t="s">
+      <c r="K49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O49" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O49" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q49" s="10">
-        <f t="shared" si="0"/>
+      <c r="T49" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2610,35 +2748,35 @@
       <c r="C50" s="3">
         <v>49</v>
       </c>
-      <c r="D50" s="3">
-        <v>50</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="H50" s="3">
+        <v>50</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
         <v>30</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O50" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="3">
+      <c r="R50" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q50" s="10">
-        <f t="shared" si="0"/>
+      <c r="T50" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2649,35 +2787,35 @@
       <c r="C51" s="5">
         <v>50</v>
       </c>
-      <c r="D51" s="3">
-        <v>50</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="H51" s="3">
+        <v>50</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
         <v>30</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O51" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="3">
+      <c r="R51" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q51" s="10">
-        <f t="shared" si="0"/>
+      <c r="T51" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2688,35 +2826,35 @@
       <c r="C52" s="3">
         <v>51</v>
       </c>
-      <c r="D52" s="3">
-        <v>50</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
+        <v>50</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>30</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O52" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q52" s="10">
-        <f t="shared" si="0"/>
+      <c r="T52" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2727,35 +2865,35 @@
       <c r="C53" s="3">
         <v>52</v>
       </c>
-      <c r="D53" s="3">
-        <v>50</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="H53" s="3">
+        <v>50</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
         <v>30</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O53" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O53" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="3">
+      <c r="R53" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q53" s="10">
-        <f t="shared" si="0"/>
+      <c r="T53" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2766,35 +2904,35 @@
       <c r="C54" s="5">
         <v>53</v>
       </c>
-      <c r="D54" s="3">
-        <v>50</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
+        <v>50</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>30</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O54" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q54" s="10">
-        <f t="shared" si="0"/>
+      <c r="T54" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2805,35 +2943,35 @@
       <c r="C55" s="3">
         <v>54</v>
       </c>
-      <c r="D55" s="3">
-        <v>50</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="H55" s="3">
+        <v>50</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
         <v>30</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O55" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="3">
+      <c r="R55" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q55" s="10">
-        <f t="shared" si="0"/>
+      <c r="T55" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2844,35 +2982,35 @@
       <c r="C56" s="3">
         <v>55</v>
       </c>
-      <c r="D56" s="3">
-        <v>50</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="H56" s="3">
+        <v>50</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
         <v>30</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O56" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="3">
+      <c r="R56" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q56" s="10">
-        <f t="shared" si="0"/>
+      <c r="T56" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2883,35 +3021,41 @@
       <c r="C57" s="5">
         <v>56</v>
       </c>
-      <c r="D57" s="3">
-        <v>50</v>
-      </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" s="3">
+        <v>50</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>30</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="K57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O57" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q57" s="10">
-        <f t="shared" si="0"/>
+      <c r="T57" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2922,43 +3066,46 @@
       <c r="C58" s="3">
         <v>57</v>
       </c>
-      <c r="D58" s="3">
-        <v>50</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="3">
+        <v>50</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>30</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O58" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O58" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q58" s="10">
-        <f t="shared" si="0"/>
+      <c r="T58" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" ht="31" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -2969,41 +3116,41 @@
       <c r="C59" s="3">
         <v>58</v>
       </c>
-      <c r="D59" s="3">
-        <v>50</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
+        <v>50</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>30</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I59" s="13" t="s">
+      <c r="M59" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>3</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="Q59" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q59" s="10">
-        <f t="shared" si="0"/>
+      <c r="T59" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3014,32 +3161,32 @@
       <c r="C60" s="5">
         <v>59</v>
       </c>
-      <c r="D60" s="3">
-        <v>50</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
+        <v>50</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>30</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O60" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q60" s="10">
-        <f t="shared" si="0"/>
+      <c r="T60" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3050,32 +3197,32 @@
       <c r="C61" s="3">
         <v>60</v>
       </c>
-      <c r="D61" s="3">
-        <v>50</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
+        <v>50</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>30</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O61" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q61" s="10">
-        <f t="shared" si="0"/>
+      <c r="T61" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3086,32 +3233,32 @@
       <c r="C62" s="3">
         <v>61</v>
       </c>
-      <c r="D62" s="3">
-        <v>50</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
+        <v>50</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>30</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O62" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q62" s="10">
-        <f t="shared" si="0"/>
+      <c r="T62" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" ht="31" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3122,41 +3269,41 @@
       <c r="C63" s="5">
         <v>62</v>
       </c>
-      <c r="D63" s="3">
-        <v>50</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="H63" s="3">
+        <v>50</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
         <v>30</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="M63" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J63" s="3">
+      <c r="N63" s="3">
         <v>4</v>
       </c>
-      <c r="M63" s="8" t="s">
+      <c r="Q63" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="O63" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="3">
+      <c r="R63" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q63" s="10">
-        <f t="shared" si="0"/>
+      <c r="T63" s="10">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3167,32 +3314,32 @@
       <c r="C64" s="3">
         <v>63</v>
       </c>
-      <c r="D64" s="3">
+      <c r="H64" s="3">
         <v>100</v>
       </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
         <v>70</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O64" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="3">
+      <c r="R64" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q64" s="10">
-        <f t="shared" si="0"/>
+      <c r="T64" s="10">
+        <f t="shared" si="5"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3203,32 +3350,38 @@
       <c r="C65" s="3">
         <v>64</v>
       </c>
-      <c r="D65" s="3">
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="3">
         <v>100</v>
       </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
         <v>70</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O65" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="3">
+      <c r="R65" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q65" s="10">
-        <f t="shared" si="0"/>
+      <c r="T65" s="10">
+        <f t="shared" si="5"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3239,39 +3392,39 @@
       <c r="C66" s="5">
         <v>65</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>70</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M66" s="8"/>
-      <c r="N66" s="3" t="s">
+      <c r="L66" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O66" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="8"/>
+      <c r="R66" s="3">
+        <f t="shared" ref="R66:R97" si="6">I66*H66/100</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q66" s="10">
-        <f t="shared" ref="Q66:Q129" si="4">D66*(1/(F66*1000/(60*60)))</f>
+      <c r="T66" s="10">
+        <f t="shared" ref="T66:T97" si="7">H66*(1/(J66*1000/(60*60)))</f>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3282,32 +3435,32 @@
       <c r="C67" s="3">
         <v>66</v>
       </c>
-      <c r="D67" s="3">
+      <c r="H67" s="3">
         <v>200</v>
       </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
         <v>70</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O67" s="3">
-        <f t="shared" ref="O67:O77" si="5">E67*D67/100</f>
-        <v>0</v>
-      </c>
-      <c r="P67" s="3">
+      <c r="R67" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="3">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="Q67" s="10">
-        <f t="shared" si="4"/>
+      <c r="T67" s="10">
+        <f t="shared" si="7"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3318,32 +3471,32 @@
       <c r="C68" s="3">
         <v>67</v>
       </c>
-      <c r="D68" s="3">
+      <c r="H68" s="3">
         <v>100</v>
       </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
         <v>40</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O68" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="3">
-        <f t="shared" ref="P68:P77" si="6">O68+P67</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q68" s="10">
-        <f t="shared" si="4"/>
+      <c r="R68" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <f t="shared" ref="S68:S77" si="8">R68+S67</f>
+        <v>0.5</v>
+      </c>
+      <c r="T68" s="10">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3354,32 +3507,32 @@
       <c r="C69" s="5">
         <v>68</v>
       </c>
-      <c r="D69" s="3">
+      <c r="H69" s="3">
         <v>100</v>
       </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
         <v>40</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O69" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="3">
+      <c r="R69" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q69" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="T69" s="10">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -3390,34 +3543,34 @@
       <c r="C70" s="3">
         <v>69</v>
       </c>
-      <c r="D70" s="3">
+      <c r="H70" s="3">
         <v>100</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>40</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O70" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q70" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="T70" s="10">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
-        <f t="shared" ref="A71:A134" si="7">A70</f>
+        <f t="shared" ref="A71:A134" si="9">A70</f>
         <v>Green</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -3426,34 +3579,34 @@
       <c r="C71" s="3">
         <v>70</v>
       </c>
-      <c r="D71" s="3">
+      <c r="H71" s="3">
         <v>100</v>
       </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
         <v>40</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O71" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="3">
+      <c r="R71" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q71" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="T71" s="10">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -3462,34 +3615,34 @@
       <c r="C72" s="5">
         <v>71</v>
       </c>
-      <c r="D72" s="3">
+      <c r="H72" s="3">
         <v>100</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
         <v>40</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O72" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q72" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="T72" s="10">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -3498,34 +3651,40 @@
       <c r="C73" s="3">
         <v>72</v>
       </c>
-      <c r="D73" s="3">
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H73" s="3">
         <v>100</v>
       </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
         <v>40</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O73" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="3">
+      <c r="R73" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q73" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="T73" s="10">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -3534,41 +3693,41 @@
       <c r="C74" s="3">
         <v>73</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" s="3">
         <v>100</v>
       </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
         <v>40</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M74" s="8"/>
-      <c r="N74" s="3" t="s">
+      <c r="L74" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O74" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="3">
+      <c r="Q74" s="8"/>
+      <c r="R74" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q74" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="T74" s="10">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3577,34 +3736,34 @@
       <c r="C75" s="5">
         <v>74</v>
       </c>
-      <c r="D75" s="3">
+      <c r="H75" s="3">
         <v>100</v>
       </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
         <v>40</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O75" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="3">
+      <c r="R75" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q75" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="T75" s="10">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -3613,34 +3772,34 @@
       <c r="C76" s="3">
         <v>75</v>
       </c>
-      <c r="D76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>40</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O76" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q76" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="T76" s="10">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -3649,34 +3808,40 @@
       <c r="C77" s="3">
         <v>76</v>
       </c>
-      <c r="D77" s="3">
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H77" s="3">
         <v>100</v>
       </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
         <v>40</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O77" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="3">
+      <c r="R77" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q77" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="T77" s="10">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -3685,49 +3850,52 @@
       <c r="C78" s="3">
         <v>77</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="3">
         <v>300</v>
       </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
         <v>70</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="K78" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I78" s="12" t="s">
+      <c r="L78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M78" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J78" s="12">
+      <c r="N78" s="12">
         <v>5</v>
       </c>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O78" s="3">
-        <f t="shared" ref="O78:O109" si="8">E78*D78/100</f>
-        <v>0</v>
-      </c>
-      <c r="P78" s="3">
-        <f t="shared" ref="P78:P109" si="9">O78+P77</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q78" s="10">
-        <f t="shared" si="4"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="3">
+        <f t="shared" ref="S78:S109" si="10">R78+S77</f>
+        <v>0.5</v>
+      </c>
+      <c r="T78" s="10">
+        <f t="shared" si="7"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -3736,34 +3904,40 @@
       <c r="C79" s="5">
         <v>78</v>
       </c>
-      <c r="D79" s="3">
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H79" s="3">
         <v>300</v>
       </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
+      <c r="I79" s="3">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3">
         <v>70</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O79" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="3">
+      <c r="R79" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T79" s="10">
+        <f t="shared" si="7"/>
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q79" s="10">
-        <f t="shared" si="4"/>
-        <v>15.428571428571431</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -3772,34 +3946,34 @@
       <c r="C80" s="3">
         <v>79</v>
       </c>
-      <c r="D80" s="3">
+      <c r="H80" s="3">
         <v>300</v>
       </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
+      <c r="I80" s="3">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
         <v>70</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O80" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P80" s="3">
+      <c r="R80" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S80" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T80" s="10">
+        <f t="shared" si="7"/>
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q80" s="10">
-        <f t="shared" si="4"/>
-        <v>15.428571428571431</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -3808,34 +3982,34 @@
       <c r="C81" s="3">
         <v>80</v>
       </c>
-      <c r="D81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>70</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O81" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T81" s="10">
+        <f t="shared" si="7"/>
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q81" s="10">
-        <f t="shared" si="4"/>
-        <v>15.428571428571431</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3844,34 +4018,34 @@
       <c r="C82" s="3">
         <v>81</v>
       </c>
-      <c r="D82" s="3">
+      <c r="H82" s="3">
         <v>300</v>
       </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
         <v>70</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O82" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P82" s="3">
+      <c r="R82" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T82" s="10">
+        <f t="shared" si="7"/>
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q82" s="10">
-        <f t="shared" si="4"/>
-        <v>15.428571428571431</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -3880,34 +4054,34 @@
       <c r="C83" s="5">
         <v>82</v>
       </c>
-      <c r="D83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>70</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O83" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T83" s="10">
+        <f t="shared" si="7"/>
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q83" s="10">
-        <f t="shared" si="4"/>
-        <v>15.428571428571431</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -3916,34 +4090,34 @@
       <c r="C84" s="3">
         <v>83</v>
       </c>
-      <c r="D84" s="3">
+      <c r="H84" s="3">
         <v>300</v>
       </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
+      <c r="I84" s="3">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
         <v>70</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O84" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P84" s="3">
+      <c r="R84" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T84" s="10">
+        <f t="shared" si="7"/>
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q84" s="10">
-        <f t="shared" si="4"/>
-        <v>15.428571428571431</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -3952,34 +4126,34 @@
       <c r="C85" s="3">
         <v>84</v>
       </c>
-      <c r="D85" s="3">
+      <c r="H85" s="3">
         <v>300</v>
       </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
+      <c r="J85" s="3">
         <v>70</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O85" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P85" s="3">
+      <c r="R85" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T85" s="10">
+        <f t="shared" si="7"/>
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q85" s="10">
-        <f t="shared" si="4"/>
-        <v>15.428571428571431</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -3988,42 +4162,45 @@
       <c r="C86" s="3">
         <v>85</v>
       </c>
-      <c r="D86" s="3">
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="3">
         <v>300</v>
       </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
         <v>70</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I86" s="12" t="s">
+      <c r="M86" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J86" s="12">
+      <c r="N86" s="12">
         <v>6</v>
       </c>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="O86" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P86" s="3">
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="R86" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T86" s="10">
+        <f t="shared" si="7"/>
+        <v>15.428571428571431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q86" s="10">
-        <f t="shared" si="4"/>
-        <v>15.428571428571431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -4032,34 +4209,34 @@
       <c r="C87" s="5">
         <v>86</v>
       </c>
-      <c r="D87" s="3">
+      <c r="H87" s="3">
         <v>100</v>
       </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
+      <c r="I87" s="3">
+        <v>0</v>
+      </c>
+      <c r="J87" s="3">
         <v>25</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O87" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P87" s="3">
+      <c r="R87" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T87" s="10">
+        <f t="shared" si="7"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q87" s="10">
-        <f t="shared" si="4"/>
-        <v>14.399999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -4068,34 +4245,40 @@
       <c r="C88" s="3">
         <v>87</v>
       </c>
-      <c r="D88" s="3">
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H88" s="3">
         <v>86.6</v>
       </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
         <v>25</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O88" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P88" s="3">
+      <c r="R88" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T88" s="10">
+        <f t="shared" si="7"/>
+        <v>12.470399999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q88" s="10">
-        <f t="shared" si="4"/>
-        <v>12.470399999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -4104,41 +4287,41 @@
       <c r="C89" s="3">
         <v>88</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>25</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M89" s="8"/>
-      <c r="N89" s="3" t="s">
+      <c r="L89" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O89" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="8"/>
+      <c r="R89" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T89" s="10">
+        <f t="shared" si="7"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q89" s="10">
-        <f t="shared" si="4"/>
-        <v>14.399999999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -4147,34 +4330,34 @@
       <c r="C90" s="3">
         <v>89</v>
       </c>
-      <c r="D90" s="3">
+      <c r="H90" s="3">
         <v>75</v>
       </c>
-      <c r="E90" s="3">
+      <c r="I90" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F90" s="3">
+      <c r="J90" s="3">
         <v>25</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O90" s="3">
-        <f t="shared" si="8"/>
+      <c r="K90" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R90" s="3">
+        <f t="shared" si="6"/>
         <v>-0.375</v>
       </c>
-      <c r="P90" s="3">
+      <c r="S90" s="3">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="T90" s="10">
+        <f t="shared" si="7"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.125</v>
-      </c>
-      <c r="Q90" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -4183,34 +4366,34 @@
       <c r="C91" s="5">
         <v>90</v>
       </c>
-      <c r="D91" s="3">
+      <c r="H91" s="3">
         <v>75</v>
       </c>
-      <c r="E91" s="3">
+      <c r="I91" s="3">
         <v>-1</v>
       </c>
-      <c r="F91" s="3">
+      <c r="J91" s="3">
         <v>25</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O91" s="3">
-        <f t="shared" si="8"/>
+      <c r="K91" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R91" s="3">
+        <f t="shared" si="6"/>
         <v>-0.75</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.625</v>
+      </c>
+      <c r="T91" s="10">
+        <f t="shared" si="7"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>-0.625</v>
-      </c>
-      <c r="Q91" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -4219,34 +4402,34 @@
       <c r="C92" s="3">
         <v>91</v>
       </c>
-      <c r="D92" s="3">
+      <c r="H92" s="3">
         <v>75</v>
       </c>
-      <c r="E92" s="3">
+      <c r="I92" s="3">
         <v>-2</v>
       </c>
-      <c r="F92" s="3">
+      <c r="J92" s="3">
         <v>25</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O92" s="3">
-        <f t="shared" si="8"/>
+      <c r="K92" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R92" s="3">
+        <f t="shared" si="6"/>
         <v>-1.5</v>
       </c>
-      <c r="P92" s="3">
+      <c r="S92" s="3">
+        <f t="shared" si="10"/>
+        <v>-2.125</v>
+      </c>
+      <c r="T92" s="10">
+        <f t="shared" si="7"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>-2.125</v>
-      </c>
-      <c r="Q92" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -4255,34 +4438,34 @@
       <c r="C93" s="3">
         <v>92</v>
       </c>
-      <c r="D93" s="3">
+      <c r="H93" s="3">
         <v>75</v>
       </c>
-      <c r="E93" s="3">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3">
+      <c r="I93" s="3">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
         <v>25</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O93" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P93" s="3">
+      <c r="K93" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R93" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <f t="shared" si="10"/>
+        <v>-2.125</v>
+      </c>
+      <c r="T93" s="10">
+        <f t="shared" si="7"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>-2.125</v>
-      </c>
-      <c r="Q93" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -4291,34 +4474,34 @@
       <c r="C94" s="3">
         <v>93</v>
       </c>
-      <c r="D94" s="3">
+      <c r="H94" s="3">
         <v>75</v>
       </c>
-      <c r="E94" s="3">
+      <c r="I94" s="3">
         <v>2</v>
       </c>
-      <c r="F94" s="3">
+      <c r="J94" s="3">
         <v>25</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O94" s="3">
-        <f t="shared" si="8"/>
+      <c r="K94" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R94" s="3">
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.625</v>
+      </c>
+      <c r="T94" s="10">
+        <f t="shared" si="7"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>-0.625</v>
-      </c>
-      <c r="Q94" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -4327,34 +4510,34 @@
       <c r="C95" s="5">
         <v>94</v>
       </c>
-      <c r="D95" s="3">
+      <c r="H95" s="3">
         <v>75</v>
       </c>
-      <c r="E95" s="3">
+      <c r="I95" s="3">
         <v>1</v>
       </c>
-      <c r="F95" s="3">
+      <c r="J95" s="3">
         <v>25</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O95" s="3">
-        <f t="shared" si="8"/>
+      <c r="K95" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R95" s="3">
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
-      <c r="P95" s="3">
+      <c r="S95" s="3">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="T95" s="10">
+        <f t="shared" si="7"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.125</v>
-      </c>
-      <c r="Q95" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -4363,34 +4546,40 @@
       <c r="C96" s="3">
         <v>95</v>
       </c>
-      <c r="D96" s="3">
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="3">
         <v>75</v>
       </c>
-      <c r="E96" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="I96" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J96" s="3">
         <v>25</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O96" s="3">
-        <f t="shared" si="8"/>
+      <c r="K96" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R96" s="3">
+        <f t="shared" si="6"/>
         <v>0.375</v>
       </c>
-      <c r="P96" s="3">
+      <c r="S96" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T96" s="10">
+        <f t="shared" si="7"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q96" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -4399,41 +4588,41 @@
       <c r="C97" s="3">
         <v>96</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="3">
         <v>75</v>
       </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
+      <c r="I97" s="3">
+        <v>0</v>
+      </c>
+      <c r="J97" s="3">
         <v>25</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M97" s="8"/>
-      <c r="N97" s="3" t="s">
+      <c r="K97" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L97" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O97" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P97" s="3">
+      <c r="Q97" s="8"/>
+      <c r="R97" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T97" s="10">
+        <f t="shared" si="7"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q97" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -4442,34 +4631,34 @@
       <c r="C98" s="3">
         <v>97</v>
       </c>
-      <c r="D98" s="3">
+      <c r="H98" s="3">
         <v>75</v>
       </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
+      <c r="I98" s="3">
+        <v>0</v>
+      </c>
+      <c r="J98" s="3">
         <v>25</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O98" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P98" s="3">
+      <c r="K98" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R98" s="3">
+        <f t="shared" ref="R98:R129" si="11">I98*H98/100</f>
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T98" s="10">
+        <f t="shared" ref="T98:T129" si="12">H98*(1/(J98*1000/(60*60)))</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q98" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -4478,34 +4667,34 @@
       <c r="C99" s="5">
         <v>98</v>
       </c>
-      <c r="D99" s="3">
+      <c r="H99" s="3">
         <v>75</v>
       </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
+      <c r="I99" s="3">
+        <v>0</v>
+      </c>
+      <c r="J99" s="3">
         <v>25</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O99" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P99" s="3">
+      <c r="K99" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R99" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T99" s="10">
+        <f t="shared" si="12"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q99" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -4514,34 +4703,34 @@
       <c r="C100" s="3">
         <v>99</v>
       </c>
-      <c r="D100" s="3">
+      <c r="H100" s="3">
         <v>75</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>25</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O100" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R100" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T100" s="10">
+        <f t="shared" si="12"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q100" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -4550,34 +4739,34 @@
       <c r="C101" s="3">
         <v>100</v>
       </c>
-      <c r="D101" s="3">
+      <c r="H101" s="3">
         <v>75</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>25</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O101" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R101" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T101" s="10">
+        <f t="shared" si="12"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q101" s="10">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -4586,34 +4775,34 @@
       <c r="C102" s="3">
         <v>101</v>
       </c>
-      <c r="D102" s="3">
+      <c r="H102" s="3">
         <v>35</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>26</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O102" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R102" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T102" s="10">
+        <f t="shared" si="12"/>
+        <v>4.8461538461538467</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q102" s="10">
-        <f t="shared" si="4"/>
-        <v>4.8461538461538467</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -4622,34 +4811,34 @@
       <c r="C103" s="5">
         <v>102</v>
       </c>
-      <c r="D103" s="3">
+      <c r="H103" s="3">
         <v>100</v>
       </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
+      <c r="I103" s="3">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3">
         <v>28</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O103" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P103" s="3">
+      <c r="K103" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R103" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S103" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T103" s="10">
+        <f t="shared" si="12"/>
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q103" s="10">
-        <f t="shared" si="4"/>
-        <v>12.857142857142859</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -4658,34 +4847,34 @@
       <c r="C104" s="3">
         <v>103</v>
       </c>
-      <c r="D104" s="3">
+      <c r="H104" s="3">
         <v>100</v>
       </c>
-      <c r="E104" s="3">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3">
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
         <v>28</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O104" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P104" s="3">
+      <c r="K104" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R104" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S104" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T104" s="10">
+        <f t="shared" si="12"/>
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q104" s="10">
-        <f t="shared" si="4"/>
-        <v>12.857142857142859</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -4694,34 +4883,40 @@
       <c r="C105" s="3">
         <v>104</v>
       </c>
-      <c r="D105" s="3">
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H105" s="3">
         <v>80</v>
       </c>
-      <c r="E105" s="3">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3">
+      <c r="I105" s="3">
+        <v>0</v>
+      </c>
+      <c r="J105" s="3">
         <v>28</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O105" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P105" s="3">
+      <c r="K105" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R105" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S105" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T105" s="10">
+        <f t="shared" si="12"/>
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q105" s="10">
-        <f t="shared" si="4"/>
-        <v>10.285714285714286</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -4730,41 +4925,41 @@
       <c r="C106" s="3">
         <v>105</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H106" s="3">
         <v>100</v>
       </c>
-      <c r="E106" s="3">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3">
+      <c r="I106" s="3">
+        <v>0</v>
+      </c>
+      <c r="J106" s="3">
         <v>28</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M106" s="8"/>
-      <c r="N106" s="3" t="s">
+      <c r="K106" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L106" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O106" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P106" s="3">
+      <c r="Q106" s="8"/>
+      <c r="R106" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S106" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T106" s="10">
+        <f t="shared" si="12"/>
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q106" s="10">
-        <f t="shared" si="4"/>
-        <v>12.857142857142859</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -4773,34 +4968,34 @@
       <c r="C107" s="5">
         <v>106</v>
       </c>
-      <c r="D107" s="3">
+      <c r="H107" s="3">
         <v>100</v>
       </c>
-      <c r="E107" s="3">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3">
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3">
         <v>28</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O107" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P107" s="3">
+      <c r="K107" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R107" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S107" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T107" s="10">
+        <f t="shared" si="12"/>
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q107" s="10">
-        <f t="shared" si="4"/>
-        <v>12.857142857142859</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -4809,34 +5004,34 @@
       <c r="C108" s="3">
         <v>107</v>
       </c>
-      <c r="D108" s="3">
+      <c r="H108" s="3">
         <v>90</v>
       </c>
-      <c r="E108" s="3">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3">
+      <c r="I108" s="3">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3">
         <v>28</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O108" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P108" s="3">
+      <c r="K108" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R108" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S108" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T108" s="10">
+        <f t="shared" si="12"/>
+        <v>11.571428571428573</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q108" s="10">
-        <f t="shared" si="4"/>
-        <v>11.571428571428573</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -4845,34 +5040,34 @@
       <c r="C109" s="3">
         <v>108</v>
       </c>
-      <c r="D109" s="3">
+      <c r="H109" s="3">
         <v>100</v>
       </c>
-      <c r="E109" s="3">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3">
+      <c r="I109" s="3">
+        <v>0</v>
+      </c>
+      <c r="J109" s="3">
         <v>28</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O109" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P109" s="3">
+      <c r="K109" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R109" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S109" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T109" s="10">
+        <f t="shared" si="12"/>
+        <v>12.857142857142859</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q109" s="10">
-        <f t="shared" si="4"/>
-        <v>12.857142857142859</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="str">
-        <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -4881,34 +5076,34 @@
       <c r="C110" s="3">
         <v>109</v>
       </c>
-      <c r="D110" s="3">
+      <c r="H110" s="3">
         <v>100</v>
       </c>
-      <c r="E110" s="3">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3">
+      <c r="I110" s="3">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3">
         <v>28</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O110" s="3">
-        <f t="shared" ref="O110:O151" si="10">E110*D110/100</f>
-        <v>0</v>
-      </c>
-      <c r="P110" s="3">
-        <f t="shared" ref="P110:P151" si="11">O110+P109</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q110" s="10">
-        <f t="shared" si="4"/>
+      <c r="K110" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R110" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S110" s="3">
+        <f t="shared" ref="S110:S151" si="13">R110+S109</f>
+        <v>0.5</v>
+      </c>
+      <c r="T110" s="10">
+        <f t="shared" si="12"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -4917,34 +5112,34 @@
       <c r="C111" s="5">
         <v>110</v>
       </c>
-      <c r="D111" s="3">
+      <c r="H111" s="3">
         <v>100</v>
       </c>
-      <c r="E111" s="3">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3">
+      <c r="I111" s="3">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
         <v>30</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O111" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P111" s="3">
+      <c r="K111" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R111" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q111" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S111" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T111" s="10">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -4953,34 +5148,34 @@
       <c r="C112" s="3">
         <v>111</v>
       </c>
-      <c r="D112" s="3">
+      <c r="H112" s="3">
         <v>100</v>
       </c>
-      <c r="E112" s="3">
-        <v>0</v>
-      </c>
-      <c r="F112" s="3">
+      <c r="I112" s="3">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
         <v>30</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O112" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P112" s="3">
+      <c r="K112" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R112" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q112" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S112" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T112" s="10">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -4989,34 +5184,34 @@
       <c r="C113" s="3">
         <v>112</v>
       </c>
-      <c r="D113" s="3">
+      <c r="H113" s="3">
         <v>100</v>
       </c>
-      <c r="E113" s="3">
-        <v>0</v>
-      </c>
-      <c r="F113" s="3">
+      <c r="I113" s="3">
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
         <v>30</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O113" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P113" s="3">
+      <c r="K113" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R113" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q113" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S113" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T113" s="10">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -5025,34 +5220,40 @@
       <c r="C114" s="3">
         <v>113</v>
       </c>
-      <c r="D114" s="3">
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H114" s="3">
         <v>100</v>
       </c>
-      <c r="E114" s="3">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3">
+      <c r="I114" s="3">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
         <v>30</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O114" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P114" s="3">
+      <c r="K114" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R114" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q114" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S114" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T114" s="10">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -5061,42 +5262,42 @@
       <c r="C115" s="5">
         <v>114</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H115" s="3">
         <f>100+62</f>
         <v>162</v>
       </c>
-      <c r="E115" s="3">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3">
+      <c r="I115" s="3">
+        <v>0</v>
+      </c>
+      <c r="J115" s="3">
         <v>30</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M115" s="8"/>
-      <c r="N115" s="3" t="s">
+      <c r="K115" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L115" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O115" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P115" s="3">
+      <c r="Q115" s="8"/>
+      <c r="R115" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q115" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S115" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T115" s="10">
+        <f t="shared" si="12"/>
         <v>19.439999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -5105,34 +5306,34 @@
       <c r="C116" s="3">
         <v>115</v>
       </c>
-      <c r="D116" s="3">
+      <c r="H116" s="3">
         <v>100</v>
       </c>
-      <c r="E116" s="3">
-        <v>0</v>
-      </c>
-      <c r="F116" s="3">
+      <c r="I116" s="3">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3">
         <v>30</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O116" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P116" s="3">
+      <c r="K116" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R116" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q116" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S116" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T116" s="10">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -5141,34 +5342,34 @@
       <c r="C117" s="3">
         <v>116</v>
       </c>
-      <c r="D117" s="3">
+      <c r="H117" s="3">
         <v>100</v>
       </c>
-      <c r="E117" s="3">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3">
+      <c r="I117" s="3">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
         <v>30</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O117" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P117" s="3">
+      <c r="K117" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R117" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q117" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S117" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T117" s="10">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -5177,34 +5378,34 @@
       <c r="C118" s="3">
         <v>117</v>
       </c>
-      <c r="D118" s="3">
-        <v>50</v>
-      </c>
-      <c r="E118" s="3">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3">
+      <c r="H118" s="3">
+        <v>50</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
         <v>15</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O118" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P118" s="3">
+      <c r="K118" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R118" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q118" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S118" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T118" s="10">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -5213,34 +5414,34 @@
       <c r="C119" s="5">
         <v>118</v>
       </c>
-      <c r="D119" s="3">
-        <v>50</v>
-      </c>
-      <c r="E119" s="3">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3">
+      <c r="H119" s="3">
+        <v>50</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0</v>
+      </c>
+      <c r="J119" s="3">
         <v>15</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O119" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P119" s="3">
+      <c r="K119" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R119" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q119" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S119" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T119" s="10">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -5249,34 +5450,34 @@
       <c r="C120" s="3">
         <v>119</v>
       </c>
-      <c r="D120" s="3">
+      <c r="H120" s="3">
         <v>40</v>
       </c>
-      <c r="E120" s="3">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3">
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3">
         <v>15</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O120" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P120" s="3">
+      <c r="K120" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R120" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q120" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S120" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T120" s="10">
+        <f t="shared" si="12"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -5285,34 +5486,34 @@
       <c r="C121" s="3">
         <v>120</v>
       </c>
-      <c r="D121" s="3">
-        <v>50</v>
-      </c>
-      <c r="E121" s="3">
-        <v>0</v>
-      </c>
-      <c r="F121" s="3">
+      <c r="H121" s="3">
+        <v>50</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0</v>
+      </c>
+      <c r="J121" s="3">
         <v>15</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O121" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P121" s="3">
+      <c r="K121" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R121" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q121" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S121" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T121" s="10">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -5321,34 +5522,34 @@
       <c r="C122" s="3">
         <v>121</v>
       </c>
-      <c r="D122" s="3">
-        <v>50</v>
-      </c>
-      <c r="E122" s="3">
-        <v>0</v>
-      </c>
-      <c r="F122" s="3">
+      <c r="H122" s="3">
+        <v>50</v>
+      </c>
+      <c r="I122" s="3">
+        <v>0</v>
+      </c>
+      <c r="J122" s="3">
         <v>15</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O122" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P122" s="3">
+      <c r="K122" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R122" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q122" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S122" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T122" s="10">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -5357,37 +5558,37 @@
       <c r="C123" s="5">
         <v>122</v>
       </c>
-      <c r="D123" s="3">
-        <v>50</v>
-      </c>
-      <c r="E123" s="3">
-        <v>0</v>
-      </c>
-      <c r="F123" s="3">
+      <c r="H123" s="3">
+        <v>50</v>
+      </c>
+      <c r="I123" s="3">
+        <v>0</v>
+      </c>
+      <c r="J123" s="3">
         <v>20</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K123" s="3" t="s">
+      <c r="O123" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O123" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P123" s="3">
+      <c r="R123" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q123" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S123" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T123" s="10">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -5396,46 +5597,53 @@
       <c r="C124" s="3">
         <v>123</v>
       </c>
-      <c r="D124" s="3">
-        <v>50</v>
-      </c>
-      <c r="E124" s="3">
-        <v>0</v>
-      </c>
-      <c r="F124" s="3">
+      <c r="D124" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" s="8">
+        <v>0</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G124" s="8"/>
+      <c r="H124" s="3">
+        <v>50</v>
+      </c>
+      <c r="I124" s="3">
+        <v>0</v>
+      </c>
+      <c r="J124" s="3">
         <v>20</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="K124" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H124" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K124" s="8" t="str">
-        <f>K58</f>
+      <c r="L124" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O124" s="8" t="str">
+        <f>O58</f>
         <v>UNDERGROUND</v>
       </c>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O124" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P124" s="3">
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q124" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S124" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T124" s="10">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -5444,37 +5652,37 @@
       <c r="C125" s="3">
         <v>124</v>
       </c>
-      <c r="D125" s="3">
-        <v>50</v>
-      </c>
-      <c r="E125" s="3">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3">
+      <c r="H125" s="3">
+        <v>50</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0</v>
+      </c>
+      <c r="J125" s="3">
         <v>20</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K125" s="3" t="s">
+      <c r="O125" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O125" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P125" s="3">
+      <c r="R125" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q125" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S125" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T125" s="10">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -5483,37 +5691,37 @@
       <c r="C126" s="3">
         <v>125</v>
       </c>
-      <c r="D126" s="3">
-        <v>50</v>
-      </c>
-      <c r="E126" s="3">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3">
+      <c r="H126" s="3">
+        <v>50</v>
+      </c>
+      <c r="I126" s="3">
+        <v>0</v>
+      </c>
+      <c r="J126" s="3">
         <v>20</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="K126" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K126" s="3" t="s">
+      <c r="O126" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O126" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P126" s="3">
+      <c r="R126" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q126" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S126" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T126" s="10">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -5522,37 +5730,37 @@
       <c r="C127" s="5">
         <v>126</v>
       </c>
-      <c r="D127" s="3">
-        <v>50</v>
-      </c>
-      <c r="E127" s="3">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3">
+      <c r="H127" s="3">
+        <v>50</v>
+      </c>
+      <c r="I127" s="3">
+        <v>0</v>
+      </c>
+      <c r="J127" s="3">
         <v>20</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K127" s="3" t="s">
+      <c r="O127" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O127" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P127" s="3">
+      <c r="R127" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q127" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S127" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T127" s="10">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -5561,37 +5769,37 @@
       <c r="C128" s="3">
         <v>127</v>
       </c>
-      <c r="D128" s="3">
-        <v>50</v>
-      </c>
-      <c r="E128" s="3">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3">
+      <c r="H128" s="3">
+        <v>50</v>
+      </c>
+      <c r="I128" s="3">
+        <v>0</v>
+      </c>
+      <c r="J128" s="3">
         <v>20</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="K128" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K128" s="3" t="s">
+      <c r="O128" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O128" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P128" s="3">
+      <c r="R128" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q128" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S128" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T128" s="10">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -5600,37 +5808,37 @@
       <c r="C129" s="3">
         <v>128</v>
       </c>
-      <c r="D129" s="3">
-        <v>50</v>
-      </c>
-      <c r="E129" s="3">
-        <v>0</v>
-      </c>
-      <c r="F129" s="3">
+      <c r="H129" s="3">
+        <v>50</v>
+      </c>
+      <c r="I129" s="3">
+        <v>0</v>
+      </c>
+      <c r="J129" s="3">
         <v>20</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="K129" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K129" s="3" t="s">
+      <c r="O129" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O129" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P129" s="3">
+      <c r="R129" s="3">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q129" s="10">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S129" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T129" s="10">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -5639,37 +5847,37 @@
       <c r="C130" s="3">
         <v>129</v>
       </c>
-      <c r="D130" s="3">
-        <v>50</v>
-      </c>
-      <c r="E130" s="3">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3">
+      <c r="H130" s="3">
+        <v>50</v>
+      </c>
+      <c r="I130" s="3">
+        <v>0</v>
+      </c>
+      <c r="J130" s="3">
         <v>20</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="K130" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K130" s="3" t="s">
+      <c r="O130" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O130" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P130" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q130" s="10">
-        <f t="shared" ref="Q130:Q150" si="12">D130*(1/(F130*1000/(60*60)))</f>
+      <c r="R130" s="3">
+        <f t="shared" ref="R130:R151" si="14">I130*H130/100</f>
+        <v>0</v>
+      </c>
+      <c r="S130" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T130" s="10">
+        <f t="shared" ref="T130:T150" si="15">H130*(1/(J130*1000/(60*60)))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -5678,37 +5886,37 @@
       <c r="C131" s="5">
         <v>130</v>
       </c>
-      <c r="D131" s="3">
-        <v>50</v>
-      </c>
-      <c r="E131" s="3">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3">
+      <c r="H131" s="3">
+        <v>50</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0</v>
+      </c>
+      <c r="J131" s="3">
         <v>20</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="K131" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K131" s="3" t="s">
+      <c r="O131" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O131" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P131" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q131" s="10">
-        <f t="shared" si="12"/>
+      <c r="R131" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S131" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T131" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -5717,37 +5925,43 @@
       <c r="C132" s="3">
         <v>131</v>
       </c>
-      <c r="D132" s="3">
-        <v>50</v>
-      </c>
       <c r="E132" s="3">
         <v>0</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H132" s="3">
+        <v>50</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0</v>
+      </c>
+      <c r="J132" s="3">
         <v>20</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="K132" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K132" s="3" t="s">
+      <c r="O132" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O132" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P132" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q132" s="10">
-        <f t="shared" si="12"/>
+      <c r="R132" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S132" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T132" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -5756,46 +5970,49 @@
       <c r="C133" s="3">
         <v>132</v>
       </c>
-      <c r="D133" s="3">
-        <v>50</v>
-      </c>
-      <c r="E133" s="3">
-        <v>0</v>
-      </c>
-      <c r="F133" s="3">
+      <c r="D133" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="3">
+        <v>50</v>
+      </c>
+      <c r="I133" s="3">
+        <v>0</v>
+      </c>
+      <c r="J133" s="3">
         <v>20</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="K133" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H133" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K133" s="8" t="str">
-        <f>K49</f>
+      <c r="L133" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O133" s="8" t="str">
+        <f>O49</f>
         <v>UNDERGROUND</v>
       </c>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O133" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P133" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q133" s="10">
-        <f t="shared" si="12"/>
+      <c r="P133" s="8"/>
+      <c r="Q133" s="8"/>
+      <c r="R133" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S133" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T133" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -5804,37 +6021,37 @@
       <c r="C134" s="3">
         <v>133</v>
       </c>
-      <c r="D134" s="3">
-        <v>50</v>
-      </c>
-      <c r="E134" s="3">
-        <v>0</v>
-      </c>
-      <c r="F134" s="3">
+      <c r="H134" s="3">
+        <v>50</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0</v>
+      </c>
+      <c r="J134" s="3">
         <v>20</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="K134" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K134" s="3" t="s">
+      <c r="O134" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O134" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P134" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q134" s="10">
-        <f t="shared" si="12"/>
+      <c r="R134" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S134" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T134" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="str">
-        <f t="shared" ref="A135:A151" si="13">A134</f>
+        <f t="shared" ref="A135:A151" si="16">A134</f>
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -5843,37 +6060,37 @@
       <c r="C135" s="5">
         <v>134</v>
       </c>
-      <c r="D135" s="3">
-        <v>50</v>
-      </c>
-      <c r="E135" s="3">
-        <v>0</v>
-      </c>
-      <c r="F135" s="3">
+      <c r="H135" s="3">
+        <v>50</v>
+      </c>
+      <c r="I135" s="3">
+        <v>0</v>
+      </c>
+      <c r="J135" s="3">
         <v>20</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="K135" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K135" s="3" t="s">
+      <c r="O135" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O135" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P135" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q135" s="10">
-        <f t="shared" si="12"/>
+      <c r="R135" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S135" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T135" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -5882,37 +6099,37 @@
       <c r="C136" s="3">
         <v>135</v>
       </c>
-      <c r="D136" s="3">
-        <v>50</v>
-      </c>
-      <c r="E136" s="3">
-        <v>0</v>
-      </c>
-      <c r="F136" s="3">
+      <c r="H136" s="3">
+        <v>50</v>
+      </c>
+      <c r="I136" s="3">
+        <v>0</v>
+      </c>
+      <c r="J136" s="3">
         <v>20</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="K136" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K136" s="3" t="s">
+      <c r="O136" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O136" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P136" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q136" s="10">
-        <f t="shared" si="12"/>
+      <c r="R136" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S136" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T136" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
@@ -5921,37 +6138,37 @@
       <c r="C137" s="3">
         <v>136</v>
       </c>
-      <c r="D137" s="3">
-        <v>50</v>
-      </c>
-      <c r="E137" s="3">
-        <v>0</v>
-      </c>
-      <c r="F137" s="3">
+      <c r="H137" s="3">
+        <v>50</v>
+      </c>
+      <c r="I137" s="3">
+        <v>0</v>
+      </c>
+      <c r="J137" s="3">
         <v>20</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="K137" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K137" s="3" t="s">
+      <c r="O137" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O137" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P137" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q137" s="10">
-        <f t="shared" si="12"/>
+      <c r="R137" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S137" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T137" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -5960,37 +6177,37 @@
       <c r="C138" s="3">
         <v>137</v>
       </c>
-      <c r="D138" s="3">
-        <v>50</v>
-      </c>
-      <c r="E138" s="3">
-        <v>0</v>
-      </c>
-      <c r="F138" s="3">
+      <c r="H138" s="3">
+        <v>50</v>
+      </c>
+      <c r="I138" s="3">
+        <v>0</v>
+      </c>
+      <c r="J138" s="3">
         <v>20</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="K138" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K138" s="3" t="s">
+      <c r="O138" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O138" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P138" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q138" s="10">
-        <f t="shared" si="12"/>
+      <c r="R138" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S138" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T138" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -5999,37 +6216,37 @@
       <c r="C139" s="5">
         <v>138</v>
       </c>
-      <c r="D139" s="3">
-        <v>50</v>
-      </c>
-      <c r="E139" s="3">
-        <v>0</v>
-      </c>
-      <c r="F139" s="3">
+      <c r="H139" s="3">
+        <v>50</v>
+      </c>
+      <c r="I139" s="3">
+        <v>0</v>
+      </c>
+      <c r="J139" s="3">
         <v>20</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="K139" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K139" s="3" t="s">
+      <c r="O139" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O139" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P139" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q139" s="10">
-        <f t="shared" si="12"/>
+      <c r="R139" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S139" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T139" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -6038,37 +6255,37 @@
       <c r="C140" s="3">
         <v>139</v>
       </c>
-      <c r="D140" s="3">
-        <v>50</v>
-      </c>
-      <c r="E140" s="3">
-        <v>0</v>
-      </c>
-      <c r="F140" s="3">
+      <c r="H140" s="3">
+        <v>50</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3">
         <v>20</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="K140" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K140" s="3" t="s">
+      <c r="O140" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O140" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P140" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q140" s="10">
-        <f t="shared" si="12"/>
+      <c r="R140" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S140" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T140" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -6077,37 +6294,43 @@
       <c r="C141" s="3">
         <v>140</v>
       </c>
-      <c r="D141" s="3">
-        <v>50</v>
-      </c>
       <c r="E141" s="3">
         <v>0</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H141" s="3">
+        <v>50</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0</v>
+      </c>
+      <c r="J141" s="3">
         <v>20</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="K141" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K141" s="3" t="s">
+      <c r="O141" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O141" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P141" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q141" s="10">
-        <f t="shared" si="12"/>
+      <c r="R141" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S141" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T141" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -6116,46 +6339,49 @@
       <c r="C142" s="3">
         <v>141</v>
       </c>
-      <c r="D142" s="3">
-        <v>50</v>
-      </c>
-      <c r="E142" s="3">
-        <v>0</v>
-      </c>
-      <c r="F142" s="3">
+      <c r="D142" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="3">
+        <v>50</v>
+      </c>
+      <c r="I142" s="3">
+        <v>0</v>
+      </c>
+      <c r="J142" s="3">
         <v>20</v>
       </c>
-      <c r="G142" s="3" t="s">
+      <c r="K142" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H142" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K142" s="8" t="str">
-        <f>K40</f>
+      <c r="L142" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O142" s="8" t="str">
+        <f>O40</f>
         <v>UNDERGROUND</v>
       </c>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O142" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P142" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q142" s="10">
-        <f t="shared" si="12"/>
+      <c r="P142" s="8"/>
+      <c r="Q142" s="8"/>
+      <c r="R142" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S142" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T142" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -6164,37 +6390,37 @@
       <c r="C143" s="5">
         <v>142</v>
       </c>
-      <c r="D143" s="3">
-        <v>50</v>
-      </c>
-      <c r="E143" s="3">
-        <v>0</v>
-      </c>
-      <c r="F143" s="3">
+      <c r="H143" s="3">
+        <v>50</v>
+      </c>
+      <c r="I143" s="3">
+        <v>0</v>
+      </c>
+      <c r="J143" s="3">
         <v>20</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="K143" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K143" s="3" t="s">
+      <c r="O143" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O143" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P143" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q143" s="10">
-        <f t="shared" si="12"/>
+      <c r="R143" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S143" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T143" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -6203,37 +6429,37 @@
       <c r="C144" s="3">
         <v>143</v>
       </c>
-      <c r="D144" s="3">
-        <v>50</v>
-      </c>
-      <c r="E144" s="3">
-        <v>0</v>
-      </c>
-      <c r="F144" s="3">
+      <c r="H144" s="3">
+        <v>50</v>
+      </c>
+      <c r="I144" s="3">
+        <v>0</v>
+      </c>
+      <c r="J144" s="3">
         <v>20</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="K144" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K144" s="3" t="s">
+      <c r="O144" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O144" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P144" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q144" s="10">
-        <f t="shared" si="12"/>
+      <c r="R144" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S144" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T144" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -6242,34 +6468,34 @@
       <c r="C145" s="3">
         <v>144</v>
       </c>
-      <c r="D145" s="3">
-        <v>50</v>
-      </c>
-      <c r="E145" s="3">
-        <v>0</v>
-      </c>
-      <c r="F145" s="3">
+      <c r="H145" s="3">
+        <v>50</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0</v>
+      </c>
+      <c r="J145" s="3">
         <v>20</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="K145" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O145" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P145" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q145" s="10">
-        <f t="shared" si="12"/>
+      <c r="R145" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S145" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T145" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -6278,34 +6504,34 @@
       <c r="C146" s="3">
         <v>145</v>
       </c>
-      <c r="D146" s="3">
-        <v>50</v>
-      </c>
-      <c r="E146" s="3">
-        <v>0</v>
-      </c>
-      <c r="F146" s="3">
+      <c r="H146" s="3">
+        <v>50</v>
+      </c>
+      <c r="I146" s="3">
+        <v>0</v>
+      </c>
+      <c r="J146" s="3">
         <v>20</v>
       </c>
-      <c r="G146" s="3" t="s">
+      <c r="K146" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O146" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P146" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q146" s="10">
-        <f t="shared" si="12"/>
+      <c r="R146" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S146" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T146" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -6314,34 +6540,34 @@
       <c r="C147" s="5">
         <v>146</v>
       </c>
-      <c r="D147" s="3">
-        <v>50</v>
-      </c>
-      <c r="E147" s="3">
-        <v>0</v>
-      </c>
-      <c r="F147" s="3">
+      <c r="H147" s="3">
+        <v>50</v>
+      </c>
+      <c r="I147" s="3">
+        <v>0</v>
+      </c>
+      <c r="J147" s="3">
         <v>20</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="K147" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O147" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P147" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q147" s="10">
-        <f t="shared" si="12"/>
+      <c r="R147" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S147" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T147" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
@@ -6350,34 +6576,34 @@
       <c r="C148" s="3">
         <v>147</v>
       </c>
-      <c r="D148" s="3">
-        <v>50</v>
-      </c>
-      <c r="E148" s="3">
-        <v>0</v>
-      </c>
-      <c r="F148" s="3">
+      <c r="H148" s="3">
+        <v>50</v>
+      </c>
+      <c r="I148" s="3">
+        <v>0</v>
+      </c>
+      <c r="J148" s="3">
         <v>20</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="K148" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O148" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P148" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q148" s="10">
-        <f t="shared" si="12"/>
+      <c r="R148" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S148" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T148" s="10">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -6386,35 +6612,35 @@
       <c r="C149" s="3">
         <v>148</v>
       </c>
-      <c r="D149" s="3">
+      <c r="H149" s="3">
         <f>40+144</f>
         <v>184</v>
       </c>
-      <c r="E149" s="3">
-        <v>0</v>
-      </c>
-      <c r="F149" s="3">
+      <c r="I149" s="3">
+        <v>0</v>
+      </c>
+      <c r="J149" s="3">
         <v>20</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="K149" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O149" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P149" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q149" s="10">
-        <f t="shared" si="12"/>
+      <c r="R149" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S149" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T149" s="10">
+        <f t="shared" si="15"/>
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -6423,34 +6649,34 @@
       <c r="C150" s="3">
         <v>149</v>
       </c>
-      <c r="D150" s="3">
+      <c r="H150" s="3">
         <v>40</v>
       </c>
-      <c r="E150" s="3">
-        <v>0</v>
-      </c>
-      <c r="F150" s="3">
+      <c r="I150" s="3">
+        <v>0</v>
+      </c>
+      <c r="J150" s="3">
         <v>20</v>
       </c>
-      <c r="G150" s="3" t="s">
+      <c r="K150" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O150" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P150" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q150" s="10">
-        <f t="shared" si="12"/>
+      <c r="R150" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S150" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T150" s="10">
+        <f t="shared" si="15"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -6459,28 +6685,28 @@
       <c r="C151" s="5">
         <v>150</v>
       </c>
-      <c r="D151" s="3">
+      <c r="H151" s="3">
         <v>35</v>
       </c>
-      <c r="E151" s="3">
-        <v>0</v>
-      </c>
-      <c r="F151" s="3">
+      <c r="I151" s="3">
+        <v>0</v>
+      </c>
+      <c r="J151" s="3">
         <v>20</v>
       </c>
-      <c r="G151" s="3" t="s">
+      <c r="K151" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O151" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P151" s="3">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q151" s="10">
-        <f>D151*(1/(F151*1000/(60*60)))</f>
+      <c r="R151" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S151" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="T151" s="10">
+        <f>H151*(1/(J151*1000/(60*60)))</f>
         <v>6.3</v>
       </c>
     </row>

--- a/resources/Green Line.xlsx
+++ b/resources/Green Line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07de44e608f1ac43/Documents/GitHub/ECE1140-Project/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD6C953-5996-4D2F-928F-AECA6D17DC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96188DE0-A4F1-4C06-BBE6-1B5E420B8E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,9 +738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1109,12 +1109,6 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
@@ -1153,6 +1147,15 @@
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -1194,12 +1197,6 @@
       <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="H11" s="3">
         <v>100</v>
       </c>
@@ -1386,12 +1383,6 @@
       <c r="C16" s="5">
         <v>15</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="H16" s="3">
         <v>150</v>
       </c>
@@ -1431,6 +1422,15 @@
       <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H17" s="3">
         <v>150</v>
       </c>
@@ -1471,12 +1471,6 @@
       <c r="C18" s="5">
         <v>17</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="H18" s="3">
         <v>150</v>
       </c>
@@ -1624,12 +1618,6 @@
       <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
@@ -1669,6 +1657,15 @@
       <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H23" s="3">
         <v>300</v>
       </c>
@@ -1709,12 +1706,6 @@
       <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
@@ -1931,8 +1922,12 @@
       <c r="C30" s="3">
         <v>29</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="3">
         <v>50</v>
@@ -1978,12 +1973,6 @@
       <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H31" s="3">
         <v>50</v>
       </c>
@@ -2653,12 +2642,6 @@
       <c r="C48" s="5">
         <v>47</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="H48" s="3">
         <v>50</v>
       </c>
@@ -2701,8 +2684,12 @@
       <c r="D49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="3">
         <v>50</v>
@@ -3021,12 +3008,6 @@
       <c r="C57" s="5">
         <v>56</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="H57" s="3">
         <v>50</v>
       </c>
@@ -3069,8 +3050,12 @@
       <c r="D58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G58" s="8"/>
       <c r="H58" s="3">
         <v>50</v>
@@ -3350,12 +3335,6 @@
       <c r="C65" s="3">
         <v>64</v>
       </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="H65" s="3">
         <v>100</v>
       </c>
@@ -3395,6 +3374,12 @@
       <c r="D66" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
@@ -3651,12 +3636,6 @@
       <c r="C73" s="3">
         <v>72</v>
       </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="H73" s="3">
         <v>100</v>
       </c>
@@ -3696,6 +3675,12 @@
       <c r="D74" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H74" s="3">
         <v>100</v>
       </c>
@@ -3808,12 +3793,6 @@
       <c r="C77" s="3">
         <v>76</v>
       </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="H77" s="3">
         <v>100</v>
       </c>
@@ -3853,9 +3832,15 @@
       <c r="D78" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="E78" s="3">
+        <v>2</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="H78" s="3">
         <v>300</v>
       </c>
@@ -3904,12 +3889,6 @@
       <c r="C79" s="5">
         <v>78</v>
       </c>
-      <c r="E79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="H79" s="3">
         <v>300</v>
       </c>
@@ -4546,12 +4525,6 @@
       <c r="C96" s="3">
         <v>95</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H96" s="3">
         <v>75</v>
       </c>
@@ -4591,6 +4564,12 @@
       <c r="D97" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="H97" s="3">
         <v>75</v>
       </c>
@@ -4883,12 +4862,6 @@
       <c r="C105" s="3">
         <v>104</v>
       </c>
-      <c r="E105" s="3">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="H105" s="3">
         <v>80</v>
       </c>
@@ -4928,6 +4901,12 @@
       <c r="D106" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H106" s="3">
         <v>100</v>
       </c>
@@ -5220,12 +5199,6 @@
       <c r="C114" s="3">
         <v>113</v>
       </c>
-      <c r="E114" s="3">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="H114" s="3">
         <v>100</v>
       </c>
@@ -5264,6 +5237,12 @@
       </c>
       <c r="D115" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H115" s="3">
         <f>100+62</f>
@@ -5925,12 +5904,6 @@
       <c r="C132" s="3">
         <v>131</v>
       </c>
-      <c r="E132" s="3">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="H132" s="3">
         <v>50</v>
       </c>
@@ -5973,8 +5946,12 @@
       <c r="D133" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
+      <c r="E133" s="3">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="G133" s="8"/>
       <c r="H133" s="3">
         <v>50</v>
@@ -6294,12 +6271,6 @@
       <c r="C141" s="3">
         <v>140</v>
       </c>
-      <c r="E141" s="3">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="H141" s="3">
         <v>50</v>
       </c>
@@ -6342,8 +6313,12 @@
       <c r="D142" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G142" s="8"/>
       <c r="H142" s="3">
         <v>50</v>

--- a/resources/Green Line.xlsx
+++ b/resources/Green Line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07de44e608f1ac43/Documents/GitHub/ECE1140-Project/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96188DE0-A4F1-4C06-BBE6-1B5E420B8E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3521C211-4A3E-4F71-A8FB-F98946140EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21345" yWindow="2535" windowWidth="19200" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="2" r:id="rId1"/>
@@ -739,8 +739,8 @@
   <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1923,7 +1923,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>80</v>

--- a/resources/Green Line.xlsx
+++ b/resources/Green Line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07de44e608f1ac43/Documents/GitHub/ECE1140-Project/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3521C211-4A3E-4F71-A8FB-F98946140EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{761FD9F6-EA9D-4A3F-9685-CC3FB99ABCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21345" yWindow="2535" windowWidth="19200" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="91">
   <si>
     <t>Block Number</t>
   </si>
@@ -260,46 +260,49 @@
     <t>B0</t>
   </si>
   <si>
-    <t>JERRY,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>EDGEBROOK,TRUE,LEFT</t>
-  </si>
-  <si>
-    <t>PIONEER,TRUE,LEFT</t>
-  </si>
-  <si>
-    <t>WHITED,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>SOUTH BANK,TRUE,LEFT</t>
-  </si>
-  <si>
-    <t>CENTRAL,TRUE,RIGHT</t>
-  </si>
-  <si>
-    <t>INGLEWOOD,TRUE,RIGHT</t>
-  </si>
-  <si>
-    <t>OVERBROOK,TRUE,RIGHT</t>
-  </si>
-  <si>
-    <t>GLENBURY,TRUE,RIGHT</t>
-  </si>
-  <si>
-    <t>DORMONT,TRUE,RIGHT</t>
-  </si>
-  <si>
-    <t>MT LEBANON,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>POPLAR,TRUE,LEFT</t>
-  </si>
-  <si>
-    <t>CASTLE SHANNON,TRUE,LEFT</t>
-  </si>
-  <si>
-    <t>INGLEWOOD,TRUE,LEFT</t>
+    <t>PIONEER,TRUE,LEFT,FALSE</t>
+  </si>
+  <si>
+    <t>EDGEBROOK,TRUE,LEFT,FALSE</t>
+  </si>
+  <si>
+    <t>JERRY,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>WHITED,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>SOUTH BANK,TRUE,LEFT,FALSE</t>
+  </si>
+  <si>
+    <t>CENTRAL,TRUE,RIGHT,FALSE</t>
+  </si>
+  <si>
+    <t>INGLEWOOD,TRUE,RIGHT,FALSE</t>
+  </si>
+  <si>
+    <t>GLENBURY,TRUE,RIGHT,FALSE</t>
+  </si>
+  <si>
+    <t>DORMONT,TRUE,RIGHT,FALSE</t>
+  </si>
+  <si>
+    <t>MT LEBANON,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>OVERBROOK,TRUE,RIGHT,TRUE</t>
+  </si>
+  <si>
+    <t>POPLAR,TRUE,LEFT,FALSE</t>
+  </si>
+  <si>
+    <t>CASTLE SHANNON,TRUE,LEFT,FALSE</t>
+  </si>
+  <si>
+    <t>OVERBROOK,TRUE,RIGHT,FALSE</t>
+  </si>
+  <si>
+    <t>INGLEWOOD,TRUE,LEFT,FALSE</t>
   </si>
 </sst>
 </file>
@@ -739,8 +742,8 @@
   <dimension ref="A1:U151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -750,8 +753,8 @@
     <col min="3" max="3" width="8.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" style="3" customWidth="1"/>
     <col min="10" max="11" width="13.26953125" style="3" customWidth="1"/>
@@ -840,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" s="3">
         <v>100</v>
@@ -925,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4" s="3">
         <v>100</v>
@@ -1426,10 +1429,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H17" s="3">
         <v>150</v>
@@ -1925,10 +1928,9 @@
       <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="11"/>
       <c r="H30" s="3">
         <v>50</v>
       </c>
@@ -3054,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="3">
@@ -3378,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H74" s="3">
         <v>100</v>
@@ -3836,10 +3838,10 @@
         <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H78" s="3">
         <v>300</v>
@@ -4905,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H106" s="3">
         <v>100</v>
@@ -5242,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H115" s="3">
         <f>100+62</f>
@@ -5583,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="3">
@@ -5950,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="3">

--- a/resources/Green Line.xlsx
+++ b/resources/Green Line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07de44e608f1ac43/Documents/GitHub/ECE1140-Project/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD6C953-5996-4D2F-928F-AECA6D17DC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{761FD9F6-EA9D-4A3F-9685-CC3FB99ABCF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="91">
   <si>
     <t>Block Number</t>
   </si>
@@ -260,46 +260,49 @@
     <t>B0</t>
   </si>
   <si>
-    <t>JERRY,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>EDGEBROOK,TRUE,LEFT</t>
-  </si>
-  <si>
-    <t>PIONEER,TRUE,LEFT</t>
-  </si>
-  <si>
-    <t>WHITED,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>SOUTH BANK,TRUE,LEFT</t>
-  </si>
-  <si>
-    <t>CENTRAL,TRUE,RIGHT</t>
-  </si>
-  <si>
-    <t>INGLEWOOD,TRUE,RIGHT</t>
-  </si>
-  <si>
-    <t>OVERBROOK,TRUE,RIGHT</t>
-  </si>
-  <si>
-    <t>GLENBURY,TRUE,RIGHT</t>
-  </si>
-  <si>
-    <t>DORMONT,TRUE,RIGHT</t>
-  </si>
-  <si>
-    <t>MT LEBANON,TRUE,BOTH</t>
-  </si>
-  <si>
-    <t>POPLAR,TRUE,LEFT</t>
-  </si>
-  <si>
-    <t>CASTLE SHANNON,TRUE,LEFT</t>
-  </si>
-  <si>
-    <t>INGLEWOOD,TRUE,LEFT</t>
+    <t>PIONEER,TRUE,LEFT,FALSE</t>
+  </si>
+  <si>
+    <t>EDGEBROOK,TRUE,LEFT,FALSE</t>
+  </si>
+  <si>
+    <t>JERRY,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>WHITED,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>SOUTH BANK,TRUE,LEFT,FALSE</t>
+  </si>
+  <si>
+    <t>CENTRAL,TRUE,RIGHT,FALSE</t>
+  </si>
+  <si>
+    <t>INGLEWOOD,TRUE,RIGHT,FALSE</t>
+  </si>
+  <si>
+    <t>GLENBURY,TRUE,RIGHT,FALSE</t>
+  </si>
+  <si>
+    <t>DORMONT,TRUE,RIGHT,FALSE</t>
+  </si>
+  <si>
+    <t>MT LEBANON,TRUE,BOTH,FALSE</t>
+  </si>
+  <si>
+    <t>OVERBROOK,TRUE,RIGHT,TRUE</t>
+  </si>
+  <si>
+    <t>POPLAR,TRUE,LEFT,FALSE</t>
+  </si>
+  <si>
+    <t>CASTLE SHANNON,TRUE,LEFT,FALSE</t>
+  </si>
+  <si>
+    <t>OVERBROOK,TRUE,RIGHT,FALSE</t>
+  </si>
+  <si>
+    <t>INGLEWOOD,TRUE,LEFT,FALSE</t>
   </si>
 </sst>
 </file>
@@ -738,9 +741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -750,8 +753,8 @@
     <col min="3" max="3" width="8.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.54296875" style="3" customWidth="1"/>
     <col min="10" max="11" width="13.26953125" style="3" customWidth="1"/>
@@ -840,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" s="3">
         <v>100</v>
@@ -925,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4" s="3">
         <v>100</v>
@@ -1109,12 +1112,6 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
@@ -1153,6 +1150,15 @@
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -1194,12 +1200,6 @@
       <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="H11" s="3">
         <v>100</v>
       </c>
@@ -1386,12 +1386,6 @@
       <c r="C16" s="5">
         <v>15</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="H16" s="3">
         <v>150</v>
       </c>
@@ -1431,6 +1425,15 @@
       <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="H17" s="3">
         <v>150</v>
       </c>
@@ -1471,12 +1474,6 @@
       <c r="C18" s="5">
         <v>17</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="H18" s="3">
         <v>150</v>
       </c>
@@ -1624,12 +1621,6 @@
       <c r="C22" s="3">
         <v>21</v>
       </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
@@ -1669,6 +1660,15 @@
       <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H23" s="3">
         <v>300</v>
       </c>
@@ -1709,12 +1709,6 @@
       <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
@@ -1931,9 +1925,12 @@
       <c r="C30" s="3">
         <v>29</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="H30" s="3">
         <v>50</v>
       </c>
@@ -1978,12 +1975,6 @@
       <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H31" s="3">
         <v>50</v>
       </c>
@@ -2653,12 +2644,6 @@
       <c r="C48" s="5">
         <v>47</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="H48" s="3">
         <v>50</v>
       </c>
@@ -2701,8 +2686,12 @@
       <c r="D49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="G49" s="8"/>
       <c r="H49" s="3">
         <v>50</v>
@@ -3021,12 +3010,6 @@
       <c r="C57" s="5">
         <v>56</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="H57" s="3">
         <v>50</v>
       </c>
@@ -3069,8 +3052,12 @@
       <c r="D58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="G58" s="8"/>
       <c r="H58" s="3">
         <v>50</v>
@@ -3350,12 +3337,6 @@
       <c r="C65" s="3">
         <v>64</v>
       </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="H65" s="3">
         <v>100</v>
       </c>
@@ -3395,6 +3376,12 @@
       <c r="D66" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
@@ -3651,12 +3638,6 @@
       <c r="C73" s="3">
         <v>72</v>
       </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="H73" s="3">
         <v>100</v>
       </c>
@@ -3696,6 +3677,12 @@
       <c r="D74" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H74" s="3">
         <v>100</v>
       </c>
@@ -3808,12 +3795,6 @@
       <c r="C77" s="3">
         <v>76</v>
       </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="H77" s="3">
         <v>100</v>
       </c>
@@ -3853,9 +3834,15 @@
       <c r="D78" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="E78" s="3">
+        <v>2</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H78" s="3">
         <v>300</v>
       </c>
@@ -3904,12 +3891,6 @@
       <c r="C79" s="5">
         <v>78</v>
       </c>
-      <c r="E79" s="3">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="H79" s="3">
         <v>300</v>
       </c>
@@ -4546,12 +4527,6 @@
       <c r="C96" s="3">
         <v>95</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H96" s="3">
         <v>75</v>
       </c>
@@ -4591,6 +4566,12 @@
       <c r="D97" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="H97" s="3">
         <v>75</v>
       </c>
@@ -4883,12 +4864,6 @@
       <c r="C105" s="3">
         <v>104</v>
       </c>
-      <c r="E105" s="3">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="H105" s="3">
         <v>80</v>
       </c>
@@ -4928,6 +4903,12 @@
       <c r="D106" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H106" s="3">
         <v>100</v>
       </c>
@@ -5220,12 +5201,6 @@
       <c r="C114" s="3">
         <v>113</v>
       </c>
-      <c r="E114" s="3">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="H114" s="3">
         <v>100</v>
       </c>
@@ -5265,6 +5240,12 @@
       <c r="D115" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="H115" s="3">
         <f>100+62</f>
         <v>162</v>
@@ -5604,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="3">
@@ -5925,12 +5906,6 @@
       <c r="C132" s="3">
         <v>131</v>
       </c>
-      <c r="E132" s="3">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="H132" s="3">
         <v>50</v>
       </c>
@@ -5973,8 +5948,12 @@
       <c r="D133" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
+      <c r="E133" s="3">
+        <v>0</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="G133" s="8"/>
       <c r="H133" s="3">
         <v>50</v>
@@ -6294,12 +6273,6 @@
       <c r="C141" s="3">
         <v>140</v>
       </c>
-      <c r="E141" s="3">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="H141" s="3">
         <v>50</v>
       </c>
@@ -6342,8 +6315,12 @@
       <c r="D142" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G142" s="8"/>
       <c r="H142" s="3">
         <v>50</v>
